--- a/hhh.xlsx
+++ b/hhh.xlsx
@@ -1,29 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Ан" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>lifespan</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Показники</t>
+  </si>
+  <si>
+    <t>Попередній період</t>
+  </si>
+  <si>
+    <t>Поточний період</t>
+  </si>
+  <si>
+    <t>Дохід від реалізації</t>
+  </si>
+  <si>
+    <t>Собівартість</t>
+  </si>
+  <si>
+    <t>Валовий</t>
+  </si>
+  <si>
+    <t>Адміністративні витрати</t>
+  </si>
+  <si>
+    <t>Витрати на збут</t>
+  </si>
+  <si>
+    <t>Інші витрати</t>
+  </si>
+  <si>
+    <t>Інші доходи</t>
+  </si>
+  <si>
+    <t>Інші фінансові доходи</t>
+  </si>
+  <si>
+    <t>Фінансовий результат</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,10 +115,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -373,51 +411,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>58.928</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>16.298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>22.098</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>31.03</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>3.157894736842105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>12.63157894736842</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>15.78947368421053</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+      <c r="C3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>120</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
